--- a/Output/Supplementary/IHM_self_reported_race_comorb.xlsx
+++ b/Output/Supplementary/IHM_self_reported_race_comorb.xlsx
@@ -401,17 +401,17 @@
         </is>
       </c>
       <c r="C2">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="D2">
         <v>1626</v>
       </c>
       <c r="E2">
-        <v>0.3021181716833891</v>
+        <v>0.3021743170414421</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1626/5382 (30%)</t>
+          <t>1626/5381 (30%)</t>
         </is>
       </c>
     </row>
